--- a/data/trans_camb/P34A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>4.544974121449924</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-2.849250356631044</v>
+        <v>-2.84925035663105</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-18.0052480590107</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-26.28454379367469</v>
+        <v>-26.2193007456593</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-14.84699634808554</v>
+        <v>-14.7279473405321</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-10.83550992274231</v>
+        <v>-11.62989397850996</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-19.45917979406054</v>
+        <v>-19.2916346616199</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.4947872676520914</v>
+        <v>-0.4996926562113678</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-7.116075241115058</v>
+        <v>-7.740835808322924</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-21.4544100516372</v>
+        <v>-21.85622882136359</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-6.239883063955853</v>
+        <v>-6.275415640515446</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-8.07539016503595</v>
+        <v>-7.831285149340776</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-16.80758832324671</v>
+        <v>-16.4564589743592</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-4.243046886480776</v>
+        <v>-3.913118473574014</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.1234289590039248</v>
+        <v>-0.09172704480466816</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-9.06205931630209</v>
+        <v>-9.014211951690646</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.39586874614058</v>
+        <v>10.4231582304675</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.101478188403951</v>
+        <v>1.865200790623404</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-14.37731572433542</v>
+        <v>-14.55390155926586</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.312225173095459</v>
+        <v>1.082142970740849</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-0.6190323860655929</v>
+        <v>-0.7052500993191476</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.1096545814849674</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.06874260381984301</v>
+        <v>-0.06874260381984315</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.417331843727506</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5571143868816847</v>
+        <v>-0.5586092296362614</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3125591189028424</v>
+        <v>-0.3118256887243803</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2306125371007283</v>
+        <v>-0.2414856478075977</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4441241736002882</v>
+        <v>-0.440508586044184</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.01278187990800213</v>
+        <v>-0.01168547918123177</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1633774007588139</v>
+        <v>-0.17204116431922</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.477612591540572</v>
+        <v>-0.4841361822607204</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1406154963796379</v>
+        <v>-0.140145103553515</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1801575228680919</v>
+        <v>-0.1779178596000033</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.3954239570307035</v>
+        <v>-0.3930845578436716</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.0974381146564342</v>
+        <v>-0.09473487763643162</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.001567454123072953</v>
+        <v>-0.004844399726627103</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.2330134425554174</v>
+        <v>-0.2357253023128412</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2687442279462906</v>
+        <v>0.2662146932344816</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0546973052317838</v>
+        <v>0.05001032072098491</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.3459761104519302</v>
+        <v>-0.3547571680718991</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.03021983815613634</v>
+        <v>0.02656365211686458</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.01483148188099804</v>
+        <v>-0.01990664284532755</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-7.002011091536859</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-8.921908991658523</v>
+        <v>-8.921908991658528</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-10.97544223443028</v>
@@ -869,7 +869,7 @@
         <v>-4.190840269210838</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-8.782445870708756</v>
+        <v>-8.782445870708749</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-14.48950475094484</v>
@@ -878,7 +878,7 @@
         <v>-5.566705503385649</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-8.832796845919793</v>
+        <v>-8.832796845919798</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-22.37139911410858</v>
+        <v>-22.3349262016235</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.55834656697705</v>
+        <v>-11.9469728348786</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-13.55825843345987</v>
+        <v>-13.45046640968807</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-15.42034504109245</v>
+        <v>-15.16459226741549</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-9.148537600648432</v>
+        <v>-8.520358444536138</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-12.81032384531407</v>
+        <v>-13.14243495155671</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-17.70499855142455</v>
+        <v>-17.68063901564999</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-8.771323764830925</v>
+        <v>-8.649402153701125</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-11.7189259346745</v>
+        <v>-11.97559648515378</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-13.57946766038585</v>
+        <v>-13.2575809455249</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.819148286805804</v>
+        <v>-2.775333399894906</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-4.364391997588046</v>
+        <v>-4.378688236267911</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-5.898226785524809</v>
+        <v>-5.909856179084821</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2310262184426285</v>
+        <v>0.9421378688705557</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-4.267928528764776</v>
+        <v>-4.859409796327212</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-11.18054640013168</v>
+        <v>-11.4816325830474</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-2.474428999580019</v>
+        <v>-2.465107823413033</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-5.317898485936413</v>
+        <v>-5.65406556030885</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.1662583839036736</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.2118451614682067</v>
+        <v>-0.2118451614682068</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.2325327520879009</v>
@@ -974,7 +974,7 @@
         <v>-0.08878982737509537</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.186070525884822</v>
+        <v>-0.1860705258848219</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.3243907494030806</v>
@@ -983,7 +983,7 @@
         <v>-0.1246272940993218</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.197748483293485</v>
+        <v>-0.1977484832934852</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4984569157265226</v>
+        <v>-0.5056725523735774</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2609454306348154</v>
+        <v>-0.2665258155471616</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3051833826599707</v>
+        <v>-0.3055937517495888</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3108711773333466</v>
+        <v>-0.3074563235742784</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1845368051003482</v>
+        <v>-0.1720821067070998</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2579010562911268</v>
+        <v>-0.2621980144624385</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3835062002463591</v>
+        <v>-0.3830033099500398</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.186124783644412</v>
+        <v>-0.1841971365774016</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2551296081891976</v>
+        <v>-0.2597781462553402</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.3370962848664221</v>
+        <v>-0.3337314913350223</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.06855898325808381</v>
+        <v>-0.06791289388381308</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1106952708392723</v>
+        <v>-0.1104495803987118</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.1364729335014251</v>
+        <v>-0.1357430524396997</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.004420788541812389</v>
+        <v>0.02122237698325046</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.09666285335434037</v>
+        <v>-0.105759338584956</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2610009308474739</v>
+        <v>-0.2655348673853559</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.05691441191348102</v>
+        <v>-0.05512853215797104</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.1263892745229842</v>
+        <v>-0.1339743077692463</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.508830415349254</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.378323017011619</v>
+        <v>2.378323017011608</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-10.88309034168676</v>
@@ -1083,7 +1083,7 @@
         <v>0.6831850403385076</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>5.847312154963769</v>
+        <v>5.847312154963774</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-11.35986679390999</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-16.86024547983072</v>
+        <v>-16.56106424285081</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.477937437178213</v>
+        <v>-4.382564531057601</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.210329176421691</v>
+        <v>-2.693741961889935</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-16.18151522336511</v>
+        <v>-16.32578225292372</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.693464253714575</v>
+        <v>-4.24326543030022</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.873401981529852</v>
+        <v>0.716855746123481</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-15.2408281608271</v>
+        <v>-14.99853959267791</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.156432983794294</v>
+        <v>-2.883869668895297</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3679239715592789</v>
+        <v>0.6931204677186678</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-7.554489010381553</v>
+        <v>-7.064601035035375</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.241576047430018</v>
+        <v>5.588732706593004</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.557873831700511</v>
+        <v>7.943412992314355</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-5.894755899125183</v>
+        <v>-6.068107036986817</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.618044204783324</v>
+        <v>5.605742590891503</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>10.55603039297193</v>
+        <v>10.83217807215719</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-7.941524404050838</v>
+        <v>-8.037367508244712</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.002510425394353</v>
+        <v>4.388012781319224</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.608363169796788</v>
+        <v>8.103377058473201</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.01556487666605062</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.07275175248006042</v>
+        <v>0.07275175248006009</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.2785535933089743</v>
@@ -1188,7 +1188,7 @@
         <v>0.01748617735463297</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1496624360201677</v>
+        <v>0.1496624360201678</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.3165804922860437</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4787246351357314</v>
+        <v>-0.4740348716076392</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1287183619141606</v>
+        <v>-0.124270122974402</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.09264766000363378</v>
+        <v>-0.07543769505963943</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3872368177249362</v>
+        <v>-0.3855114589632969</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1159325145394337</v>
+        <v>-0.1018468494265447</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02167496317609295</v>
+        <v>0.01495726191368807</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4050822215349322</v>
+        <v>-0.396001714704836</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.0848955815643252</v>
+        <v>-0.07646374364854779</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.009365796591133693</v>
+        <v>0.01935202824573841</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.245858243481448</v>
+        <v>-0.2347290335629705</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1761604400962525</v>
+        <v>0.1868854848293382</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2407010998526279</v>
+        <v>0.2629576143467724</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.1599698030632415</v>
+        <v>-0.1672639951638851</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1508866745926918</v>
+        <v>0.1524170653568143</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2917727802171101</v>
+        <v>0.2955429824739428</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.2359257782465339</v>
+        <v>-0.2334513854468089</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1182947821218394</v>
+        <v>0.1278132227664459</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2261539987396856</v>
+        <v>0.2416438582531547</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-11.41544667472717</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-14.81085631957072</v>
+        <v>-14.81085631957071</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-22.6927528661654</v>
@@ -1297,7 +1297,7 @@
         <v>-10.42363210744798</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-12.46919118005033</v>
+        <v>-12.46919118005034</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-22.11675856404219</v>
@@ -1306,7 +1306,7 @@
         <v>-10.83613190713825</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-13.47728735907083</v>
+        <v>-13.47728735907081</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-25.56086520818117</v>
+        <v>-25.65800424779037</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-15.81390433364489</v>
+        <v>-15.30310866498731</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-19.45053302157618</v>
+        <v>-19.01538479780781</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-27.56392245800643</v>
+        <v>-26.76385254006066</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-15.18095294805708</v>
+        <v>-15.0533418268819</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-16.24421465013598</v>
+        <v>-16.98124142046502</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-25.34221566313708</v>
+        <v>-24.7401334258975</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-14.06229326973076</v>
+        <v>-13.86248137973093</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-16.5030752545803</v>
+        <v>-16.72286841536952</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-17.14110920557577</v>
+        <v>-17.19888297653908</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-6.947158290773467</v>
+        <v>-7.376808935191429</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-10.47536909196922</v>
+        <v>-10.37618610643069</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-18.84036234997313</v>
+        <v>-18.34547242870557</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-5.834900016489221</v>
+        <v>-6.033705467477414</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-8.545264035667371</v>
+        <v>-8.66667194048766</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-19.12416342554715</v>
+        <v>-18.9230604797398</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-7.776658302872533</v>
+        <v>-7.717833316289435</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-10.73023275958664</v>
+        <v>-10.62673669353488</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.2638768026370459</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.3423642999951565</v>
+        <v>-0.3423642999951563</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.4282466359296328</v>
@@ -1402,7 +1402,7 @@
         <v>-0.1967097341829472</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.2353125337905437</v>
+        <v>-0.2353125337905438</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.4576275392329104</v>
@@ -1411,7 +1411,7 @@
         <v>-0.2242151518319319</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.27886445619087</v>
+        <v>-0.2788644561908696</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.565786819560201</v>
+        <v>-0.568320613554437</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3482110438647546</v>
+        <v>-0.3384107936638856</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4298056419134891</v>
+        <v>-0.4175616266679034</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4967885608964313</v>
+        <v>-0.4868638530197748</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2723227851005802</v>
+        <v>-0.2727991392230208</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2967513762214786</v>
+        <v>-0.3040678930537454</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.5077227277110575</v>
+        <v>-0.5027619838817702</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2808807015002185</v>
+        <v>-0.2805248252071306</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3288654695746667</v>
+        <v>-0.3334053320088234</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.4199530048070436</v>
+        <v>-0.4166408202850642</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1673301084075478</v>
+        <v>-0.1780052800738933</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.2563098022086742</v>
+        <v>-0.2496047252354327</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.3676272510908511</v>
+        <v>-0.3569617833751246</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1121126843331997</v>
+        <v>-0.117113807753388</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1706221908054641</v>
+        <v>-0.1712370144224953</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.4064138128417265</v>
+        <v>-0.4040897824968127</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1663714800570842</v>
+        <v>-0.168146881389587</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.2264066278720414</v>
+        <v>-0.2267979989510565</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-3.409652960407306</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-5.639294308989967</v>
+        <v>-5.639294308989962</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-16.84408418786153</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-20.9419943613642</v>
+        <v>-21.15901332802479</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-9.60301725318574</v>
+        <v>-9.699636640427723</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-10.16962206976789</v>
+        <v>-10.43565384418165</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-17.51523048721673</v>
+        <v>-17.49326860216723</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-5.821628941759435</v>
+        <v>-5.660233696260553</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-7.798879060714069</v>
+        <v>-7.842756949741046</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-18.40544437997948</v>
+        <v>-18.32512272836773</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-6.934593139825039</v>
+        <v>-6.949035217280707</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-8.375228209178099</v>
+        <v>-8.320634043349608</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-16.28614109036619</v>
+        <v>-16.335204737496</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-4.780172215190794</v>
+        <v>-4.766900509271374</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-5.24700093501622</v>
+        <v>-5.257368387316737</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-12.88536684283276</v>
+        <v>-12.78536657349687</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-1.299349344059971</v>
+        <v>-0.9983932286108425</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-3.496012904351189</v>
+        <v>-3.335849081865454</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-14.98504841729918</v>
+        <v>-15.20986914218006</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-3.483415542875572</v>
+        <v>-3.518517752197218</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-5.044053264814108</v>
+        <v>-4.861831649496712</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.07390826214194385</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.122238376434244</v>
+        <v>-0.1222383764342439</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.3860281821563634</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4942837824164727</v>
+        <v>-0.5005622591755939</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2289384095145013</v>
+        <v>-0.2291204683620447</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2408555332826715</v>
+        <v>-0.2457921996304469</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3709011812937699</v>
+        <v>-0.3692030131277695</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1244152053723688</v>
+        <v>-0.1207261523107368</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1637154050937684</v>
+        <v>-0.1659646596913011</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.4165221770949026</v>
+        <v>-0.4142084594594136</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1571771330699306</v>
+        <v>-0.1561068063979617</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1877144802033595</v>
+        <v>-0.1871186480066073</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.4096108393671844</v>
+        <v>-0.4089771217956359</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1222697402361784</v>
+        <v>-0.119418529676131</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1320724628960893</v>
+        <v>-0.1325765830409615</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.2865790685290369</v>
+        <v>-0.2832795041140725</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.03049798577336665</v>
+        <v>-0.02229076821246182</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.07592215446124796</v>
+        <v>-0.07454149774419581</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.3532857467376269</v>
+        <v>-0.354686182246191</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.08209211626499836</v>
+        <v>-0.08322637311307829</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.1172468313778424</v>
+        <v>-0.1150185852009327</v>
       </c>
     </row>
     <row r="34">
